--- a/Data Base.xlsx
+++ b/Data Base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martina Manur Hemani\PycharmProjects\Attendance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93CC846-F84E-4BC4-82F3-7AEB3DDB5CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C8F811-F125-40A2-898E-96C162B87155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Martina Hemani</t>
   </si>
@@ -45,10 +45,13 @@
     <t>Pooja Bhadage</t>
   </si>
   <si>
-    <t>Agrata Chawhan</t>
-  </si>
-  <si>
     <t>Anjali Sharma</t>
+  </si>
+  <si>
+    <t>Dahifale Pooja</t>
+  </si>
+  <si>
+    <t>Vaishnavi Kesare</t>
   </si>
 </sst>
 </file>
@@ -370,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -428,7 +431,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>8830745223</v>
+        <v>7498730641</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -436,7 +439,15 @@
         <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>7498730641</v>
+        <v>7499821335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>9561241521</v>
       </c>
     </row>
   </sheetData>
